--- a/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A28AE73-CE86-4667-A8BF-D6E40840AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99680936-2222-48B1-A7D1-62878246AE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{825D31CB-9CCF-49F3-8DCD-87A52695071F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EC89786A-2AAD-4BF7-9C3E-02132EEA4CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,217 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -100,33 +307,6 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>34,31%</t>
   </si>
   <si>
@@ -154,18 +334,6 @@
     <t>39,45%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>61,34%</t>
   </si>
   <si>
@@ -193,111 +361,114 @@
     <t>66,83%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>5,44%</t>
   </si>
   <si>
@@ -322,21 +493,6 @@
     <t>9,23%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
     <t>26,99%</t>
   </si>
   <si>
@@ -364,12 +520,6 @@
     <t>35,28%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>67,56%</t>
   </si>
   <si>
@@ -397,154 +547,31 @@
     <t>69,47%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>3,97%</t>
@@ -574,27 +601,6 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>30,98%</t>
   </si>
   <si>
@@ -622,12 +628,6 @@
     <t>35,3%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>65,06%</t>
   </si>
   <si>
@@ -658,6 +658,165 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>1,97%</t>
   </si>
   <si>
@@ -679,21 +838,6 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
     <t>36,09%</t>
   </si>
   <si>
@@ -718,9 +862,6 @@
     <t>38,88%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>61,94%</t>
   </si>
   <si>
@@ -748,85 +889,103 @@
     <t>70,13%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>7,28%</t>
@@ -853,15 +1012,6 @@
     <t>8,8%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>23,8%</t>
   </si>
   <si>
@@ -892,9 +1042,6 @@
     <t>52,04%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
     <t>54,94%</t>
   </si>
   <si>
@@ -913,151 +1060,19 @@
     <t>64,5%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>3,4%</t>
@@ -1075,18 +1090,6 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>30,51%</t>
   </si>
   <si>
@@ -1108,9 +1111,6 @@
     <t>28,93%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>65,92%</t>
   </si>
   <si>
@@ -1141,6 +1141,159 @@
     <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>3,74%</t>
   </si>
   <si>
@@ -1165,18 +1318,6 @@
     <t>9,46%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
     <t>33,12%</t>
   </si>
   <si>
@@ -1204,18 +1345,6 @@
     <t>37,95%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>63,14%</t>
   </si>
   <si>
@@ -1243,85 +1372,103 @@
     <t>66,4%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>4,9%</t>
@@ -1345,18 +1492,6 @@
     <t>8,07%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>37,3%</t>
   </si>
   <si>
@@ -1384,9 +1519,6 @@
     <t>44,22%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>57,8%</t>
   </si>
   <si>
@@ -1411,136 +1543,19 @@
     <t>62,42%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>2,39%</t>
@@ -1564,15 +1579,6 @@
     <t>6,54%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
     <t>31,09%</t>
   </si>
   <si>
@@ -1598,12 +1604,6 @@
   </si>
   <si>
     <t>34,07%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
   </si>
   <si>
     <t>64,66%</t>
@@ -2022,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919813FE-C8F5-4105-9262-89B77C7551C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B03D31A-6993-462E-9A03-937229D80CE5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2140,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4004</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2155,40 +2155,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>5231</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9236</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2197,196 +2197,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>31602</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>33300</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>64903</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4934</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>7184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>56497</v>
+        <v>10230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>59996</v>
+        <v>8408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>116493</v>
+        <v>18638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,108 +2395,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>92104</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>99181</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>191285</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1318</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>2510</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2505,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2520,13 +2520,13 @@
         <v>635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2535,121 +2535,121 @@
         <v>635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>21097</v>
+        <v>1318</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>15474</v>
+        <v>1192</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>36571</v>
+        <v>2510</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>21097</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15474</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="7">
+        <v>56</v>
+      </c>
+      <c r="N13" s="7">
+        <v>36571</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>50</v>
@@ -2658,13 +2658,13 @@
         <v>33073</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -2673,13 +2673,13 @@
         <v>26858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -2688,13 +2688,13 @@
         <v>59932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2709,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -2724,13 +2724,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2739,72 +2739,72 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4798</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>4452</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>9250</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2813,196 +2813,196 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1404</v>
+        <v>654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1404</v>
+        <v>654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>23790</v>
+        <v>4004</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>25886</v>
+        <v>5231</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>49675</v>
+        <v>9236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>31602</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="7">
+        <v>53</v>
+      </c>
+      <c r="I19" s="7">
+        <v>33300</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>64903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
         <v>86</v>
       </c>
       <c r="D20" s="7">
-        <v>59541</v>
+        <v>56497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I20" s="7">
-        <v>46567</v>
+        <v>59996</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="N20" s="7">
-        <v>106108</v>
+        <v>116493</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,54 +3011,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>88129</v>
+        <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="N21" s="7">
-        <v>166438</v>
+        <v>191285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3070,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3100,19 +3100,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3121,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3136,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3151,166 +3151,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>2250</v>
+        <v>2158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>4934</v>
+        <v>995</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>7184</v>
+        <v>3154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>17160</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>18068</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>35228</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D26" s="7">
-        <v>10230</v>
+        <v>42059</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="7">
+        <v>59</v>
+      </c>
+      <c r="I26" s="7">
+        <v>36590</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>126</v>
+      </c>
+      <c r="N26" s="7">
+        <v>78649</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="7">
-        <v>11</v>
-      </c>
-      <c r="I26" s="7">
-        <v>8408</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M26" s="7">
-        <v>24</v>
-      </c>
-      <c r="N26" s="7">
-        <v>18638</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,108 +3319,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>61377</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>117031</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>2158</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>3154</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3429,157 +3429,157 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1404</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>1404</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>17160</v>
+        <v>4798</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>18068</v>
+        <v>4452</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M30" s="7">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>35228</v>
+        <v>9250</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>23790</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>25886</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>49675</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D32" s="7">
-        <v>42059</v>
+        <v>59541</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>160</v>
@@ -3591,10 +3591,10 @@
         <v>162</v>
       </c>
       <c r="H32" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I32" s="7">
-        <v>36590</v>
+        <v>46567</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>163</v>
@@ -3606,10 +3606,10 @@
         <v>165</v>
       </c>
       <c r="M32" s="7">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="N32" s="7">
-        <v>78649</v>
+        <v>106108</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>166</v>
@@ -3627,49 +3627,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>61377</v>
+        <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>117031</v>
+        <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,55 +3680,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>12278</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="H34" s="7">
-        <v>18</v>
-      </c>
-      <c r="I34" s="7">
-        <v>11871</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M34" s="7">
-        <v>36</v>
-      </c>
-      <c r="N34" s="7">
-        <v>24150</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3752,13 +3752,13 @@
         <v>2693</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -3767,112 +3767,112 @@
         <v>2693</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="D36" s="7">
-        <v>95899</v>
+        <v>12278</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" s="7">
+        <v>18</v>
+      </c>
+      <c r="I36" s="7">
+        <v>11871</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" s="7">
+        <v>36</v>
+      </c>
+      <c r="N36" s="7">
+        <v>24150</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H36" s="7">
-        <v>145</v>
-      </c>
-      <c r="I36" s="7">
-        <v>97663</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M36" s="7">
-        <v>291</v>
-      </c>
-      <c r="N36" s="7">
-        <v>193561</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>95899</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>97663</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M37" s="7">
+        <v>291</v>
+      </c>
+      <c r="N37" s="7">
+        <v>193561</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>195</v>
@@ -3881,7 +3881,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>302</v>
@@ -3941,13 +3941,13 @@
         <v>309578</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>432</v>
@@ -3956,13 +3956,13 @@
         <v>290646</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>898</v>
@@ -3971,13 +3971,13 @@
         <v>600224</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +3998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A62791-06B3-43B7-8DF4-0FA6941B1777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB735B48-1710-4BC2-A3CE-65DE6AEA8551}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4116,55 +4116,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2044</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3919</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4173,196 +4173,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>34346</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>29522</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>63869</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3582</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>10259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>58946</v>
+        <v>7812</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>65661</v>
+        <v>7693</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>124607</v>
+        <v>15506</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,108 +4371,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>95167</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>193004</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>2064</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4481,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4511,121 +4511,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>12458</v>
+        <v>634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>13596</v>
+        <v>1430</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>26054</v>
+        <v>2064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>12458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13596</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M13" s="7">
+        <v>39</v>
+      </c>
+      <c r="N13" s="7">
+        <v>26054</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>64</v>
@@ -4634,13 +4634,13 @@
         <v>44395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -4649,13 +4649,13 @@
         <v>37145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -4664,13 +4664,13 @@
         <v>81539</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4685,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4700,13 +4700,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -4715,72 +4715,72 @@
         <v>109657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>6546</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2547</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>9093</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4789,142 +4789,142 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>27835</v>
+        <v>1875</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>36078</v>
+        <v>2044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>63913</v>
+        <v>3919</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>34346</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" s="7">
+        <v>46</v>
+      </c>
+      <c r="I19" s="7">
+        <v>29522</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M19" s="7">
+        <v>97</v>
+      </c>
+      <c r="N19" s="7">
+        <v>63869</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>273</v>
@@ -4933,52 +4933,52 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D20" s="7">
-        <v>55473</v>
+        <v>58946</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="7">
+        <v>98</v>
+      </c>
+      <c r="I20" s="7">
+        <v>65661</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="7">
+        <v>186</v>
+      </c>
+      <c r="N20" s="7">
+        <v>124607</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H20" s="7">
-        <v>61</v>
-      </c>
-      <c r="I20" s="7">
-        <v>47100</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M20" s="7">
-        <v>138</v>
-      </c>
-      <c r="N20" s="7">
-        <v>102572</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,54 +4987,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>89854</v>
+        <v>95167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>85725</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="N21" s="7">
-        <v>175578</v>
+        <v>193004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5046,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5061,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5076,34 +5076,34 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5112,181 +5112,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>6678</v>
+        <v>2018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>294</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>3582</v>
+        <v>2390</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>10259</v>
+        <v>4407</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>18163</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20505</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>38668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7">
-        <v>7812</v>
+        <v>48320</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="I26" s="7">
-        <v>7693</v>
+        <v>42272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="N26" s="7">
-        <v>15506</v>
+        <v>90592</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,123 +5295,123 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>134248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>2390</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4407</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5420,157 +5420,157 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>18163</v>
+        <v>6546</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2547</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M30" s="7">
+        <v>12</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9093</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H30" s="7">
-        <v>32</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20505</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M30" s="7">
-        <v>61</v>
-      </c>
-      <c r="N30" s="7">
-        <v>38668</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>27835</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="7">
+        <v>46</v>
+      </c>
+      <c r="I31" s="7">
+        <v>36078</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M31" s="7">
+        <v>83</v>
+      </c>
+      <c r="N31" s="7">
+        <v>63913</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="7">
-        <v>48320</v>
+        <v>55473</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="H32" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I32" s="7">
-        <v>42272</v>
+        <v>47100</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>334</v>
@@ -5582,10 +5582,10 @@
         <v>336</v>
       </c>
       <c r="M32" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N32" s="7">
-        <v>90592</v>
+        <v>102572</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>337</v>
@@ -5603,49 +5603,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D33" s="7">
-        <v>69081</v>
+        <v>89854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I33" s="7">
-        <v>65167</v>
+        <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N33" s="7">
-        <v>134248</v>
+        <v>175578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,55 +5656,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>11071</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="H34" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>8411</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="M34" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>19483</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -5713,13 +5713,13 @@
         <v>580</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -5728,13 +5728,13 @@
         <v>609</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -5743,121 +5743,121 @@
         <v>1189</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7">
+        <v>11071</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H36" s="7">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7">
+        <v>8411</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M36" s="7">
         <v>28</v>
       </c>
-      <c r="C36" s="7">
-        <v>143</v>
-      </c>
-      <c r="D36" s="7">
-        <v>99481</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="N36" s="7">
+        <v>19483</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H36" s="7">
-        <v>148</v>
-      </c>
-      <c r="I36" s="7">
-        <v>103282</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M36" s="7">
-        <v>291</v>
-      </c>
-      <c r="N36" s="7">
-        <v>202763</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>99481</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H37" s="7">
+        <v>148</v>
+      </c>
+      <c r="I37" s="7">
+        <v>103282</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M37" s="7">
+        <v>291</v>
+      </c>
+      <c r="N37" s="7">
+        <v>202763</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>314</v>
@@ -5917,13 +5917,13 @@
         <v>326078</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>444</v>
@@ -5932,13 +5932,13 @@
         <v>312174</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>918</v>
@@ -5947,13 +5947,13 @@
         <v>638252</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5974,7 +5974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2430C39E-B78F-4A57-B8C2-061E97BA17C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313AB32-AA9C-4F9F-8059-DCEF074380FC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6092,55 +6092,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3888</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9240</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M4" s="7">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13129</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -6149,196 +6149,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>34449</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>31482</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>65931</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>368</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>617</v>
+        <v>1819</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>617</v>
+        <v>3190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>65673</v>
+        <v>11836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>60331</v>
+        <v>10904</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>126005</v>
+        <v>22740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,108 +6347,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>104011</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102234</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>206246</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4553</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4027</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>8580</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6457,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6472,13 +6472,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6487,121 +6487,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>13149</v>
+        <v>4553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>12515</v>
+        <v>4027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>182</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>25664</v>
+        <v>8580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>13149</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>12515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>25664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>52</v>
@@ -6610,13 +6610,13 @@
         <v>40134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -6625,13 +6625,13 @@
         <v>39739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -6640,13 +6640,13 @@
         <v>79873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6661,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6676,13 +6676,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6691,72 +6691,72 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4874</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>4515</v>
+        <v>617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>9388</v>
+        <v>617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6765,196 +6765,196 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>792</v>
+        <v>564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>792</v>
+        <v>564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>37126</v>
+        <v>3888</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>440</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>40827</v>
+        <v>9240</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>77952</v>
+        <v>13129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>34449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>31482</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>429</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>430</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>65931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D20" s="7">
-        <v>57529</v>
+        <v>65673</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I20" s="7">
-        <v>57751</v>
+        <v>60331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="N20" s="7">
-        <v>115279</v>
+        <v>126005</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,54 +6963,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>104011</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="I21" s="7">
-        <v>103884</v>
+        <v>102234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="N21" s="7">
-        <v>203411</v>
+        <v>206246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7022,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7037,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7052,34 +7052,34 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7088,181 +7088,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>445</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>1371</v>
+        <v>759</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>458</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>1819</v>
+        <v>2028</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>3190</v>
+        <v>2787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>22482</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>21426</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>43908</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>462</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7">
-        <v>11836</v>
+        <v>50621</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>72</v>
+      </c>
+      <c r="I26" s="7">
+        <v>46455</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="H26" s="7">
-        <v>12</v>
-      </c>
-      <c r="I26" s="7">
-        <v>10904</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>144</v>
+      </c>
+      <c r="N26" s="7">
+        <v>97077</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M26" s="7">
-        <v>26</v>
-      </c>
-      <c r="N26" s="7">
-        <v>22740</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,252 +7271,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2028</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="M28" s="7">
-        <v>4</v>
-      </c>
-      <c r="N28" s="7">
-        <v>2787</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
-        <v>759</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>22482</v>
+        <v>4874</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4515</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9388</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="H30" s="7">
-        <v>33</v>
-      </c>
-      <c r="I30" s="7">
-        <v>21426</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="M30" s="7">
-        <v>63</v>
-      </c>
-      <c r="N30" s="7">
-        <v>43908</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>37126</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>484</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H31" s="7">
+        <v>53</v>
+      </c>
+      <c r="I31" s="7">
+        <v>40827</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M31" s="7">
+        <v>104</v>
+      </c>
+      <c r="N31" s="7">
+        <v>77952</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>492</v>
@@ -7525,43 +7525,43 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D32" s="7">
-        <v>50621</v>
+        <v>57529</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>493</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>75</v>
+      </c>
+      <c r="I32" s="7">
+        <v>57751</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="H32" s="7">
-        <v>72</v>
-      </c>
-      <c r="I32" s="7">
-        <v>46455</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>497</v>
       </c>
       <c r="M32" s="7">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N32" s="7">
-        <v>97077</v>
+        <v>115279</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>498</v>
@@ -7579,49 +7579,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103884</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>203411</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,55 +7632,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>14074</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>617</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>617</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="H34" s="7">
-        <v>29</v>
-      </c>
-      <c r="I34" s="7">
-        <v>19809</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="M34" s="7">
-        <v>49</v>
-      </c>
-      <c r="N34" s="7">
-        <v>33884</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>506</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -7689,13 +7689,13 @@
         <v>759</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -7704,13 +7704,13 @@
         <v>1356</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -7719,121 +7719,121 @@
         <v>2115</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D36" s="7">
-        <v>108576</v>
+        <v>14074</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H36" s="7">
+        <v>29</v>
+      </c>
+      <c r="I36" s="7">
+        <v>19809</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M36" s="7">
+        <v>49</v>
+      </c>
+      <c r="N36" s="7">
+        <v>33884</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="H36" s="7">
-        <v>153</v>
-      </c>
-      <c r="I36" s="7">
-        <v>108069</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="M36" s="7">
-        <v>303</v>
-      </c>
-      <c r="N36" s="7">
-        <v>216645</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>108576</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>513</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>514</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="I37" s="7">
-        <v>617</v>
+        <v>108069</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>345</v>
+        <v>516</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>21</v>
+        <v>517</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M37" s="7">
+        <v>303</v>
+      </c>
+      <c r="N37" s="7">
+        <v>216645</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>617</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>309</v>
@@ -7893,13 +7893,13 @@
         <v>349203</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>492</v>
@@ -7908,13 +7908,13 @@
         <v>345032</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>972</v>
@@ -7923,13 +7923,13 @@
         <v>694235</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99680936-2222-48B1-A7D1-62878246AE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60FAC812-FCD4-46B8-8540-C143C433CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EC89786A-2AAD-4BF7-9C3E-02132EEA4CD3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{630A4E75-434D-456C-8A6F-C865561F5604}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="537">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -70,1567 +70,1585 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>48,18%</t>
   </si>
   <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>58,05%</t>
   </si>
   <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1659,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1737,39 +1755,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1821,7 +1839,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1932,13 +1950,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1947,6 +1958,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2011,19 +2029,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B03D31A-6993-462E-9A03-937229D80CE5}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EA3E65-BE0A-48B1-94F7-8692D5F545C8}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2140,10 +2178,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10230</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2155,91 +2193,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>8408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>18638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4934</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>7184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2248,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2263,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2278,115 +2316,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4934</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>7184</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>10230</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>8408</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>18638</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,106 +2486,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>33073</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7">
         <v>40</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>26858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>59932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>21097</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>635</v>
+        <v>15474</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>635</v>
+        <v>36571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -2556,13 +2594,13 @@
         <v>1318</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2571,13 +2609,13 @@
         <v>1192</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2586,112 +2624,112 @@
         <v>2510</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>21097</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>15474</v>
+        <v>635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>36571</v>
+        <v>635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>33073</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>26858</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>59932</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>71</v>
@@ -2756,106 +2794,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>56497</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>59996</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>116493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>31602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>654</v>
+        <v>33300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="N17" s="7">
-        <v>654</v>
+        <v>64903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -2864,13 +2902,13 @@
         <v>4004</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2879,13 +2917,13 @@
         <v>5231</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2894,112 +2932,112 @@
         <v>9236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>31602</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>33300</v>
+        <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>64903</v>
+        <v>654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>56497</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H20" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>59996</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>116493</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>106</v>
@@ -3064,106 +3102,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>42059</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>36590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>78649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>17160</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>18068</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>35228</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -3172,13 +3210,13 @@
         <v>2158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3187,13 +3225,13 @@
         <v>995</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3202,115 +3240,115 @@
         <v>3154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>17160</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>18068</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>35228</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>42059</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>36590</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>78649</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,112 +3404,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>59541</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>46567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>106108</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>23790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I29" s="7">
-        <v>1404</v>
+        <v>25886</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="N29" s="7">
-        <v>1404</v>
+        <v>49675</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -3480,13 +3518,13 @@
         <v>4798</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3495,13 +3533,13 @@
         <v>4452</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3510,115 +3548,115 @@
         <v>9250</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>23790</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="H31" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>25886</v>
+        <v>1404</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>49675</v>
+        <v>1404</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>59541</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="H32" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>46567</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>106108</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,106 +3718,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>201401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>178419</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>379820</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>95899</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="I35" s="7">
-        <v>2693</v>
+        <v>97663</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="N35" s="7">
-        <v>2693</v>
+        <v>193561</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>18</v>
@@ -3788,13 +3826,13 @@
         <v>12278</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -3803,13 +3841,13 @@
         <v>11871</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -3818,112 +3856,112 @@
         <v>24150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>95899</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H37" s="7">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>97663</v>
+        <v>2693</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M37" s="7">
-        <v>291</v>
+        <v>4</v>
       </c>
       <c r="N37" s="7">
-        <v>193561</v>
+        <v>2693</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>201401</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="H38" s="7">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>178419</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M38" s="7">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>379820</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>204</v>
@@ -3978,6 +4016,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3998,8 +4041,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB735B48-1710-4BC2-A3CE-65DE6AEA8551}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F259DA-FBBF-4E9A-B613-F5E354D13833}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4015,7 +4058,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4116,106 +4159,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7693</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>15506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6678</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3582</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4224,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4239,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4254,115 +4297,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6678</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3582</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>10259</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>7812</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7693</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>15506</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,106 +4467,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>44395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>37145</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>81539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>12458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>13596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>26054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -4532,13 +4575,13 @@
         <v>634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4547,13 +4590,13 @@
         <v>1430</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -4562,112 +4605,112 @@
         <v>2064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>12458</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>13596</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>26054</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>44395</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>37145</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>81539</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>252</v>
@@ -4732,106 +4775,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>58946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>65661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>124607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>34346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>609</v>
+        <v>29522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="N17" s="7">
-        <v>609</v>
+        <v>63869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -4840,13 +4883,13 @@
         <v>1875</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4855,13 +4898,13 @@
         <v>2044</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4870,115 +4913,115 @@
         <v>3919</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>34346</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H19" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>29522</v>
+        <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>63869</v>
+        <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>58946</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>65661</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>124607</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,106 +5083,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>48320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>42272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>90592</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7">
-        <v>580</v>
+        <v>18163</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N23" s="7">
-        <v>580</v>
+        <v>38668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -5148,13 +5191,13 @@
         <v>2018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5163,13 +5206,13 @@
         <v>2390</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5178,115 +5221,115 @@
         <v>4407</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>18163</v>
+        <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20505</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>38668</v>
+        <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>48320</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H26" s="7">
-        <v>64</v>
-      </c>
-      <c r="I26" s="7">
-        <v>42272</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M26" s="7">
-        <v>140</v>
-      </c>
-      <c r="N26" s="7">
-        <v>90592</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,112 +5385,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>55473</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>47100</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>102572</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>27835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>36078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>63913</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>9</v>
@@ -5456,13 +5499,13 @@
         <v>6546</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -5471,13 +5514,13 @@
         <v>2547</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5486,115 +5529,115 @@
         <v>9093</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>27835</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H31" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>36078</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="M31" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>63913</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>55473</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H32" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>47100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>335</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M32" s="7">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>102572</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>337</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>338</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,106 +5699,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>214946</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>199871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>414817</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="D35" s="7">
-        <v>580</v>
+        <v>99481</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>177</v>
+        <v>353</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="I35" s="7">
-        <v>609</v>
+        <v>103282</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>343</v>
+        <v>49</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="N35" s="7">
-        <v>1189</v>
+        <v>202763</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>52</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>16</v>
@@ -5764,13 +5807,13 @@
         <v>11071</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -5779,13 +5822,13 @@
         <v>8411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -5794,115 +5837,115 @@
         <v>19483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>99481</v>
+        <v>580</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H37" s="7">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>103282</v>
+        <v>609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="M37" s="7">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>202763</v>
+        <v>1189</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>356</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>214946</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>358</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="H38" s="7">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>199871</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="M38" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>414817</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>363</v>
+        <v>31</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>365</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,6 +5997,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5974,8 +6022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313AB32-AA9C-4F9F-8059-DCEF074380FC}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D20381-B676-4E0F-A23B-721DAD589DA6}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5991,7 +6039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6092,106 +6140,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>11836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>10904</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>22740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1371</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6200,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6215,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6230,115 +6278,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>369</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>3190</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>11836</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>10904</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>379</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>22740</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,106 +6448,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>40134</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>39739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>79873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>13149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>12515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>25664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>402</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -6508,13 +6556,13 @@
         <v>4553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -6523,13 +6571,13 @@
         <v>4027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -6538,115 +6586,115 @@
         <v>8580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>13149</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>12515</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>25664</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>40134</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>39739</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>79873</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,106 +6756,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>65673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="I16" s="7">
-        <v>617</v>
+        <v>60331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="N16" s="7">
-        <v>617</v>
+        <v>126005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>34449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>564</v>
+        <v>31482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>429</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>564</v>
+        <v>65931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -6816,13 +6864,13 @@
         <v>3888</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -6831,13 +6879,13 @@
         <v>9240</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -6846,115 +6894,115 @@
         <v>13129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>34449</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>31482</v>
+        <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>430</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>65931</v>
+        <v>564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>65673</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>60331</v>
+        <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M20" s="7">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>126005</v>
+        <v>617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,106 +7064,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>50621</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>46455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>97077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7">
-        <v>759</v>
+        <v>22482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>458</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>21426</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N23" s="7">
-        <v>759</v>
+        <v>43908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>465</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -7124,13 +7172,13 @@
         <v>759</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7139,13 +7187,13 @@
         <v>2028</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7154,115 +7202,115 @@
         <v>2787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>22482</v>
+        <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>455</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>21426</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>458</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="M25" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>43908</v>
+        <v>759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>50621</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>465</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>46455</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>467</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>402</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>97077</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>469</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>470</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,112 +7366,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>57529</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>57751</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>115279</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>37126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I29" s="7">
-        <v>792</v>
+        <v>40827</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="N29" s="7">
-        <v>792</v>
+        <v>77952</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>108</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -7432,13 +7480,13 @@
         <v>4874</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>40</v>
+        <v>498</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7447,13 +7495,13 @@
         <v>4515</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -7462,115 +7510,115 @@
         <v>9388</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>37126</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>485</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="H31" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>40827</v>
+        <v>792</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>488</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="M31" s="7">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>77952</v>
+        <v>792</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>491</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>57529</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>493</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="H32" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>57751</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>495</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>496</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="M32" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>115279</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,106 +7680,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>225793</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>340</v>
+        <v>511</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="I34" s="7">
-        <v>617</v>
+        <v>215180</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>341</v>
+        <v>512</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>616</v>
       </c>
       <c r="N34" s="7">
-        <v>617</v>
+        <v>440973</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D35" s="7">
-        <v>759</v>
+        <v>108576</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>384</v>
+        <v>519</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="I35" s="7">
-        <v>1356</v>
+        <v>108069</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>521</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="M35" s="7">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="N35" s="7">
-        <v>2115</v>
+        <v>216645</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>413</v>
+        <v>523</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>20</v>
@@ -7740,13 +7788,13 @@
         <v>14074</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>424</v>
+        <v>281</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7755,13 +7803,13 @@
         <v>19809</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -7770,115 +7818,115 @@
         <v>33884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>512</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>108576</v>
+        <v>759</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>514</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="H37" s="7">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>108069</v>
+        <v>1356</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>517</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="M37" s="7">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>216645</v>
+        <v>2115</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>519</v>
+        <v>447</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>225793</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>522</v>
+        <v>31</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>523</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>524</v>
+        <v>369</v>
       </c>
       <c r="H38" s="7">
-        <v>307</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>215180</v>
+        <v>617</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>525</v>
+        <v>365</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>526</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="M38" s="7">
-        <v>616</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>440974</v>
+        <v>617</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>529</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,7 +7968,7 @@
         <v>972</v>
       </c>
       <c r="N39" s="7">
-        <v>694235</v>
+        <v>694234</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -7930,6 +7978,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60FAC812-FCD4-46B8-8540-C143C433CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FB46E2-5876-4F57-8434-5D069F8FDDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{630A4E75-434D-456C-8A6F-C865561F5604}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDF4CF83-90F9-41E6-804B-CDD008A481F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="543">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,7 +76,7 @@
     <t>81,97%</t>
   </si>
   <si>
-    <t>58,41%</t>
+    <t>57,46%</t>
   </si>
   <si>
     <t>95,27%</t>
@@ -85,19 +85,19 @@
     <t>63,02%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -109,25 +109,25 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>41,59%</t>
+    <t>42,54%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -157,82 +157,82 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>38,02%</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>36,7%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>8,77%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>9,68%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>2,23%</t>
@@ -241,13 +241,13 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>6,7%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -256,1378 +256,1393 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>61,34%</t>
   </si>
   <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>6,0%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>7,99%</t>
   </si>
   <si>
     <t>4,88%</t>
@@ -1636,19 +1651,22 @@
     <t>3,61%</t>
   </si>
   <si>
+    <t>6,33%</t>
+  </si>
+  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
     <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EA3E65-BE0A-48B1-94F7-8692D5F545C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C18CBF7-A1B9-4784-BC74-CCA7F3500846}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3180,7 +3198,7 @@
         <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -3189,13 +3207,13 @@
         <v>35228</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3228,13 @@
         <v>2158</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3225,13 +3243,13 @@
         <v>995</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3240,13 +3258,13 @@
         <v>3154</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,23 +3285,23 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
@@ -3297,7 +3315,7 @@
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,23 +3336,23 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,7 +3422,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3416,13 +3434,13 @@
         <v>59541</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -3431,13 +3449,13 @@
         <v>46567</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -3446,13 +3464,13 @@
         <v>106108</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3485,13 @@
         <v>23790</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -3482,13 +3500,13 @@
         <v>25886</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -3497,13 +3515,13 @@
         <v>49675</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3536,13 @@
         <v>4798</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3533,13 +3551,13 @@
         <v>4452</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3548,13 +3566,13 @@
         <v>9250</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3602,13 @@
         <v>1404</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3599,13 +3617,13 @@
         <v>1404</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,7 +3659,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3656,7 +3674,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3742,13 @@
         <v>201401</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H34" s="7">
         <v>265</v>
@@ -3739,13 +3757,13 @@
         <v>178419</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M34" s="7">
         <v>567</v>
@@ -3754,13 +3772,13 @@
         <v>379820</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3793,13 @@
         <v>95899</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H35" s="7">
         <v>145</v>
@@ -3790,13 +3808,13 @@
         <v>97663</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M35" s="7">
         <v>291</v>
@@ -3805,13 +3823,13 @@
         <v>193561</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3844,13 @@
         <v>12278</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -3841,13 +3859,13 @@
         <v>11871</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -3856,13 +3874,13 @@
         <v>24150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3901,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3892,13 +3910,13 @@
         <v>2693</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -3907,13 +3925,13 @@
         <v>2693</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,7 +3952,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3949,7 +3967,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3964,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4038,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F259DA-FBBF-4E9A-B613-F5E354D13833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC0FBDC-872A-4901-89D6-5AB557566F7C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4058,7 +4076,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4165,13 +4183,13 @@
         <v>7812</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4180,13 +4198,13 @@
         <v>7693</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4195,13 +4213,13 @@
         <v>15506</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4234,13 @@
         <v>6678</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4231,13 +4249,13 @@
         <v>3582</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4246,13 +4264,13 @@
         <v>10259</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4306,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4303,7 +4321,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,7 +4357,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4354,7 +4372,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4408,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4405,7 +4423,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4491,13 @@
         <v>44395</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4488,13 +4506,13 @@
         <v>37145</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4503,13 +4521,13 @@
         <v>81539</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4542,13 @@
         <v>12458</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -4539,13 +4557,13 @@
         <v>13596</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -4554,13 +4572,13 @@
         <v>26054</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4593,13 @@
         <v>634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4590,13 +4608,13 @@
         <v>1430</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -4605,13 +4623,13 @@
         <v>2064</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,22 +4650,22 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4683,22 +4701,22 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5161,7 +5179,7 @@
         <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5170,13 +5188,13 @@
         <v>38668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5209,13 @@
         <v>2018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5206,13 +5224,13 @@
         <v>2390</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5221,13 +5239,13 @@
         <v>4407</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5260,13 @@
         <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5263,7 +5281,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5272,13 +5290,13 @@
         <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,7 +5317,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5314,7 +5332,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5329,7 +5347,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,7 +5403,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5397,13 +5415,13 @@
         <v>55473</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -5412,13 +5430,13 @@
         <v>47100</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>138</v>
@@ -5427,13 +5445,13 @@
         <v>102572</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5466,13 @@
         <v>27835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -5463,13 +5481,13 @@
         <v>36078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>83</v>
@@ -5478,13 +5496,13 @@
         <v>63913</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5517,13 @@
         <v>6546</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -5514,13 +5532,13 @@
         <v>2547</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5529,13 +5547,13 @@
         <v>9093</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,7 +5574,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5571,7 +5589,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5586,7 +5604,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5625,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5622,7 +5640,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5637,7 +5655,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5723,13 @@
         <v>214946</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H34" s="7">
         <v>283</v>
@@ -5720,13 +5738,13 @@
         <v>199871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M34" s="7">
         <v>597</v>
@@ -5735,13 +5753,13 @@
         <v>414817</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5774,13 @@
         <v>99481</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H35" s="7">
         <v>148</v>
@@ -5771,13 +5789,13 @@
         <v>103282</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>49</v>
+        <v>358</v>
       </c>
       <c r="M35" s="7">
         <v>291</v>
@@ -5786,13 +5804,13 @@
         <v>202763</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5825,13 @@
         <v>11071</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -5822,13 +5840,13 @@
         <v>8411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -5837,13 +5855,13 @@
         <v>19483</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5876,13 @@
         <v>580</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -5873,13 +5891,13 @@
         <v>609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -5888,13 +5906,13 @@
         <v>1189</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>106</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,7 +5933,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5930,7 +5948,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5945,7 +5963,7 @@
         <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,7 +6019,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6022,7 +6040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D20381-B676-4E0F-A23B-721DAD589DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C1FBE-DD50-4350-B3BB-A82EEFA4E83F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6039,7 +6057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6146,13 +6164,13 @@
         <v>11836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -6161,13 +6179,13 @@
         <v>10904</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -6176,13 +6194,13 @@
         <v>22740</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,13 +6215,13 @@
         <v>1371</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6212,13 +6230,13 @@
         <v>1819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6227,13 +6245,13 @@
         <v>3190</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,7 +6287,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6284,7 +6302,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,7 +6338,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6335,7 +6353,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,7 +6389,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6386,7 +6404,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6472,13 @@
         <v>40134</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -6469,13 +6487,13 @@
         <v>39739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -6484,13 +6502,13 @@
         <v>79873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6523,13 @@
         <v>13149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -6520,13 +6538,13 @@
         <v>12515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -6535,13 +6553,13 @@
         <v>25664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6574,13 @@
         <v>4553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>411</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -6571,13 +6589,13 @@
         <v>4027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -6586,13 +6604,13 @@
         <v>8580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,7 +6646,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6643,7 +6661,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,7 +6697,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6694,7 +6712,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6780,13 @@
         <v>65673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -6777,13 +6795,13 @@
         <v>60331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -6792,13 +6810,13 @@
         <v>126005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6831,13 @@
         <v>34449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -6828,13 +6846,13 @@
         <v>31482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -6843,13 +6861,13 @@
         <v>65931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,13 +6882,13 @@
         <v>3888</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -6879,13 +6897,13 @@
         <v>9240</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>440</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -6894,13 +6912,13 @@
         <v>13129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,7 +6939,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6930,13 +6948,13 @@
         <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6945,13 +6963,13 @@
         <v>564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,7 +6990,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6981,13 +6999,13 @@
         <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6996,13 +7014,13 @@
         <v>617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7088,13 @@
         <v>50621</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>72</v>
@@ -7085,13 +7103,13 @@
         <v>46455</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -7100,13 +7118,13 @@
         <v>97077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7139,13 @@
         <v>22482</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -7136,13 +7154,13 @@
         <v>21426</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -7151,13 +7169,13 @@
         <v>43908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,13 +7190,13 @@
         <v>759</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7187,13 +7205,13 @@
         <v>2028</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>195</v>
+        <v>471</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7202,13 +7220,13 @@
         <v>2787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,13 +7241,13 @@
         <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7244,7 +7262,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7253,13 +7271,13 @@
         <v>759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,7 +7298,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7295,7 +7313,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7310,7 +7328,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,7 +7384,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7378,13 +7396,13 @@
         <v>57529</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H28" s="7">
         <v>75</v>
@@ -7393,13 +7411,13 @@
         <v>57751</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M28" s="7">
         <v>152</v>
@@ -7408,13 +7426,13 @@
         <v>115279</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7447,13 @@
         <v>37126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -7444,13 +7462,13 @@
         <v>40827</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M29" s="7">
         <v>104</v>
@@ -7459,13 +7477,13 @@
         <v>77952</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7498,13 @@
         <v>4874</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7498,10 +7516,10 @@
         <v>91</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -7510,13 +7528,13 @@
         <v>9388</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,7 +7555,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7546,13 +7564,13 @@
         <v>792</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -7561,13 +7579,13 @@
         <v>792</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7606,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7603,7 +7621,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7618,7 +7636,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>508</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7704,13 @@
         <v>225793</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H34" s="7">
         <v>307</v>
@@ -7701,28 +7719,28 @@
         <v>215180</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M34" s="7">
         <v>616</v>
       </c>
       <c r="N34" s="7">
-        <v>440973</v>
+        <v>440974</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7755,13 @@
         <v>108576</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H35" s="7">
         <v>153</v>
@@ -7752,13 +7770,13 @@
         <v>108069</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>522</v>
+        <v>179</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -7767,13 +7785,13 @@
         <v>216645</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7806,13 @@
         <v>14074</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7803,13 +7821,13 @@
         <v>19809</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -7818,13 +7836,13 @@
         <v>33884</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>437</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7857,13 @@
         <v>759</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -7854,13 +7872,13 @@
         <v>1356</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -7869,13 +7887,13 @@
         <v>2115</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>535</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7896,7 +7914,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7905,13 +7923,13 @@
         <v>617</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>478</v>
+        <v>164</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -7920,13 +7938,13 @@
         <v>617</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>200</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,7 +7986,7 @@
         <v>972</v>
       </c>
       <c r="N39" s="7">
-        <v>694234</v>
+        <v>694235</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -7982,7 +8000,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FB46E2-5876-4F57-8434-5D069F8FDDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC108D4C-6D39-4EA4-9ACA-E3315D5E2E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDF4CF83-90F9-41E6-804B-CDD008A481F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8595472F-9C63-4059-8D4E-EAB8B64E4866}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="480">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,1606 +67,1417 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>2,07%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>5,83%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
     <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
   </si>
 </sst>
 </file>
@@ -2078,8 +1889,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C18CBF7-A1B9-4784-BC74-CCA7F3500846}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF17361-4127-46FA-921F-250771FFA9C3}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2196,10 +2007,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>10230</v>
+        <v>35266</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2211,10 +2022,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="I4" s="7">
-        <v>8408</v>
+        <v>43303</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2226,10 +2037,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="N4" s="7">
-        <v>18638</v>
+        <v>78570</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2247,10 +2058,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>2250</v>
+        <v>20408</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2262,10 +2073,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>4934</v>
+        <v>23347</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2277,10 +2088,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>7184</v>
+        <v>43756</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2298,10 +2109,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2313,55 +2124,55 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2510</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2370,34 +2181,34 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2406,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2421,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2436,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,102 +2262,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D9" s="7">
-        <v>12480</v>
+        <v>57502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>13342</v>
+        <v>67968</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="N9" s="7">
-        <v>25822</v>
+        <v>125471</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>33073</v>
+        <v>59996</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>26858</v>
+        <v>56497</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N10" s="7">
-        <v>59932</v>
+        <v>116493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,49 +2366,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>21097</v>
+        <v>33300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>15474</v>
+        <v>31602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="N11" s="7">
-        <v>36571</v>
+        <v>64903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,106 +2417,106 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>1318</v>
+        <v>5231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>1192</v>
+        <v>4004</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>2510</v>
+        <v>9236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2714,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2729,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2744,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,102 +2570,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="D15" s="7">
-        <v>55488</v>
+        <v>99181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="I15" s="7">
-        <v>44160</v>
+        <v>92104</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="N15" s="7">
-        <v>99649</v>
+        <v>191285</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36590</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="7">
-        <v>56497</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
+        <v>67</v>
+      </c>
+      <c r="I16" s="7">
+        <v>42059</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>126</v>
+      </c>
+      <c r="N16" s="7">
+        <v>78649</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="I16" s="7">
-        <v>59996</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="7">
-        <v>180</v>
-      </c>
-      <c r="N16" s="7">
-        <v>116493</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,49 +2674,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>31602</v>
+        <v>18068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>33300</v>
+        <v>17160</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
+        <v>57</v>
+      </c>
+      <c r="N17" s="7">
+        <v>35228</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="7">
-        <v>64903</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,55 +2725,55 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>4004</v>
+        <v>995</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>5231</v>
+        <v>2158</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>9236</v>
+        <v>3154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2971,49 +2782,49 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3022,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3037,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3052,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,102 +2878,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="D21" s="7">
-        <v>92104</v>
+        <v>55653</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="I21" s="7">
-        <v>99181</v>
+        <v>61377</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="N21" s="7">
-        <v>191285</v>
+        <v>117031</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>42059</v>
+        <v>46567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I22" s="7">
-        <v>36590</v>
+        <v>59541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="N22" s="7">
-        <v>78649</v>
+        <v>106108</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,49 +2982,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>17160</v>
+        <v>25886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>18068</v>
+        <v>23790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N23" s="7">
-        <v>35228</v>
+        <v>49675</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,70 +3033,70 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>2158</v>
+        <v>4452</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>995</v>
+        <v>4798</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>3154</v>
+        <v>9250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1404</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3294,34 +3105,34 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3330,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3345,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3360,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,102 +3186,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D27" s="7">
-        <v>61377</v>
+        <v>78309</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="I27" s="7">
-        <v>55653</v>
+        <v>88129</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="N27" s="7">
-        <v>117031</v>
+        <v>166438</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="D28" s="7">
-        <v>59541</v>
+        <v>178419</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="I28" s="7">
-        <v>46567</v>
+        <v>201401</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
-        <v>147</v>
+        <v>567</v>
       </c>
       <c r="N28" s="7">
-        <v>106108</v>
+        <v>379820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,49 +3290,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="D29" s="7">
-        <v>23790</v>
+        <v>97663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="7">
         <v>146</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="7">
-        <v>33</v>
-      </c>
       <c r="I29" s="7">
-        <v>25886</v>
+        <v>95899</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="N29" s="7">
-        <v>49675</v>
+        <v>193561</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,106 +3341,106 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>4798</v>
+        <v>11871</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>4452</v>
+        <v>12278</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N30" s="7">
-        <v>9250</v>
+        <v>24150</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>1404</v>
+        <v>2693</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3638,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3653,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3668,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,370 +3494,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>128</v>
+        <v>432</v>
       </c>
       <c r="D33" s="7">
-        <v>88129</v>
+        <v>290646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>466</v>
       </c>
       <c r="I33" s="7">
-        <v>78309</v>
+        <v>309578</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>230</v>
+        <v>898</v>
       </c>
       <c r="N33" s="7">
-        <v>166438</v>
+        <v>600224</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>302</v>
-      </c>
-      <c r="D34" s="7">
-        <v>201401</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="7">
-        <v>265</v>
-      </c>
-      <c r="I34" s="7">
-        <v>178419</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M34" s="7">
-        <v>567</v>
-      </c>
-      <c r="N34" s="7">
-        <v>379820</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>146</v>
-      </c>
-      <c r="D35" s="7">
-        <v>95899</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="7">
-        <v>145</v>
-      </c>
-      <c r="I35" s="7">
-        <v>97663</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M35" s="7">
-        <v>291</v>
-      </c>
-      <c r="N35" s="7">
-        <v>193561</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P35" s="7" t="s">
+      <c r="A34" t="s">
         <v>184</v>
       </c>
-      <c r="Q35" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>18</v>
-      </c>
-      <c r="D36" s="7">
-        <v>12278</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="7">
-        <v>18</v>
-      </c>
-      <c r="I36" s="7">
-        <v>11871</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="7">
-        <v>36</v>
-      </c>
-      <c r="N36" s="7">
-        <v>24150</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="7">
-        <v>4</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2693</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2693</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>466</v>
-      </c>
-      <c r="D39" s="7">
-        <v>309578</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="7">
-        <v>432</v>
-      </c>
-      <c r="I39" s="7">
-        <v>290646</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="7">
-        <v>898</v>
-      </c>
-      <c r="N39" s="7">
-        <v>600224</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>203</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4059,8 +3561,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC0FBDC-872A-4901-89D6-5AB557566F7C}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8924DC60-0B34-477E-BFB6-F022E88D0821}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4076,7 +3578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4177,49 +3679,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>7812</v>
+        <v>44838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>7693</v>
+        <v>52207</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="N4" s="7">
-        <v>15506</v>
+        <v>97045</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,49 +3730,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>6678</v>
+        <v>17177</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>3582</v>
+        <v>19136</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>10259</v>
+        <v>36313</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,55 +3781,55 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4336,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4351,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4366,19 +3868,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4387,13 +3889,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4402,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4417,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,102 +3934,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>14490</v>
+        <v>63445</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I9" s="7">
-        <v>11275</v>
+        <v>71977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>25765</v>
+        <v>135422</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7">
-        <v>44395</v>
+        <v>65661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>37145</v>
+        <v>58946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="N10" s="7">
-        <v>81539</v>
+        <v>124607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,49 +4038,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>12458</v>
+        <v>29522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>13596</v>
+        <v>34346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="N11" s="7">
-        <v>26054</v>
+        <v>63869</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,70 +4089,70 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>634</v>
+        <v>2044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1430</v>
+        <v>1875</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>2064</v>
+        <v>3919</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4659,34 +4161,34 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4695,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4710,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4725,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,102 +4242,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D15" s="7">
-        <v>57487</v>
+        <v>97837</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>52171</v>
+        <v>95167</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="N15" s="7">
-        <v>109657</v>
+        <v>193004</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>58946</v>
+        <v>42272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>65661</v>
+        <v>48320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>124607</v>
+        <v>90592</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,49 +4346,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>34346</v>
+        <v>20505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>29522</v>
+        <v>18163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N17" s="7">
-        <v>63869</v>
+        <v>38668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,55 +4397,55 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>1875</v>
+        <v>2390</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2044</v>
+        <v>2018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>3919</v>
+        <v>4407</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4952,49 +4454,49 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5003,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5018,13 +4520,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5033,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,102 +4550,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>95167</v>
+        <v>65167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="I21" s="7">
-        <v>97837</v>
+        <v>69081</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="N21" s="7">
-        <v>193004</v>
+        <v>134248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>48320</v>
+        <v>47100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>42272</v>
+        <v>55473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N22" s="7">
-        <v>90592</v>
+        <v>102572</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,49 +4654,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7">
-        <v>18163</v>
+        <v>36078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>20505</v>
+        <v>27835</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="N23" s="7">
-        <v>38668</v>
+        <v>63913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,67 +4708,67 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>2018</v>
+        <v>2547</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>2390</v>
+        <v>6546</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>4407</v>
+        <v>9093</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5275,34 +4777,34 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5311,13 +4813,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5326,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5341,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,102 +4858,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>69081</v>
+        <v>85725</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="I27" s="7">
-        <v>65167</v>
+        <v>89854</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N27" s="7">
-        <v>134248</v>
+        <v>175578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="D28" s="7">
-        <v>55473</v>
+        <v>199871</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="I28" s="7">
-        <v>47100</v>
+        <v>214946</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
-        <v>138</v>
+        <v>597</v>
       </c>
       <c r="N28" s="7">
-        <v>102572</v>
+        <v>414817</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,49 +4962,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="D29" s="7">
-        <v>27835</v>
+        <v>103282</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="I29" s="7">
-        <v>36078</v>
+        <v>99481</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="N29" s="7">
-        <v>63913</v>
+        <v>202763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>332</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,106 +5013,106 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>6546</v>
+        <v>8411</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>2547</v>
+        <v>11071</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="M30" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>9093</v>
+        <v>19483</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>339</v>
+        <v>140</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -5619,13 +5121,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5634,13 +5136,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5649,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,370 +5166,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>123</v>
+        <v>444</v>
       </c>
       <c r="D33" s="7">
-        <v>89854</v>
+        <v>312174</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>110</v>
+        <v>474</v>
       </c>
       <c r="I33" s="7">
-        <v>85725</v>
+        <v>326078</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>233</v>
+        <v>918</v>
       </c>
       <c r="N33" s="7">
-        <v>175578</v>
+        <v>638252</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>314</v>
-      </c>
-      <c r="D34" s="7">
-        <v>214946</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H34" s="7">
-        <v>283</v>
-      </c>
-      <c r="I34" s="7">
-        <v>199871</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M34" s="7">
-        <v>597</v>
-      </c>
-      <c r="N34" s="7">
-        <v>414817</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>143</v>
-      </c>
-      <c r="D35" s="7">
-        <v>99481</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H35" s="7">
-        <v>148</v>
-      </c>
-      <c r="I35" s="7">
-        <v>103282</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M35" s="7">
-        <v>291</v>
-      </c>
-      <c r="N35" s="7">
-        <v>202763</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>16</v>
-      </c>
-      <c r="D36" s="7">
-        <v>11071</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H36" s="7">
-        <v>12</v>
-      </c>
-      <c r="I36" s="7">
-        <v>8411</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M36" s="7">
-        <v>28</v>
-      </c>
-      <c r="N36" s="7">
-        <v>19483</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>580</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>609</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1189</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>474</v>
-      </c>
-      <c r="D39" s="7">
-        <v>326078</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="7">
-        <v>444</v>
-      </c>
-      <c r="I39" s="7">
-        <v>312174</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="7">
-        <v>918</v>
-      </c>
-      <c r="N39" s="7">
-        <v>638252</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>203</v>
+      <c r="A34" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6040,8 +5233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C1FBE-DD50-4350-B3BB-A82EEFA4E83F}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22109D90-C463-4191-A21B-DC446CBD6359}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6057,7 +5250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6158,49 +5351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>11836</v>
+        <v>50643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>10904</v>
+        <v>51970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>22740</v>
+        <v>102613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,49 +5402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>1371</v>
+        <v>14334</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>1819</v>
+        <v>14520</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>3190</v>
+        <v>28854</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,55 +5453,55 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>4027</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>4553</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>347</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>8580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>350</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -6317,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6332,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6347,19 +5540,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6368,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6383,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6398,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,102 +5606,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7">
-        <v>13207</v>
+        <v>69004</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>12723</v>
+        <v>71043</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="N9" s="7">
-        <v>25930</v>
+        <v>140047</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>40134</v>
+        <v>60331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>39739</v>
+        <v>65673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="N10" s="7">
-        <v>79873</v>
+        <v>126005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,49 +5710,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>13149</v>
+        <v>31482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
-        <v>12515</v>
+        <v>34449</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>25664</v>
+        <v>65931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,70 +5761,70 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>4553</v>
+        <v>9240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>4027</v>
+        <v>3888</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>62</v>
+        <v>376</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>8580</v>
+        <v>13129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6640,49 +5833,49 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6691,28 +5884,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,102 +5914,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="D15" s="7">
-        <v>57836</v>
+        <v>102234</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>56281</v>
+        <v>104011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="N15" s="7">
-        <v>114117</v>
+        <v>206246</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>65673</v>
+        <v>46455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>60331</v>
+        <v>50621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="N16" s="7">
-        <v>126005</v>
+        <v>97077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,49 +6018,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>34449</v>
+        <v>21426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>31482</v>
+        <v>22482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>65931</v>
+        <v>43908</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,55 +6069,55 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>3888</v>
+        <v>2028</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>9240</v>
+        <v>759</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>440</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="M18" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>13129</v>
+        <v>2787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -6933,49 +6126,49 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>564</v>
+        <v>759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>447</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>564</v>
+        <v>759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -6984,43 +6177,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,102 +6222,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7">
-        <v>104011</v>
+        <v>69909</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="I21" s="7">
-        <v>102234</v>
+        <v>74621</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="N21" s="7">
-        <v>206246</v>
+        <v>144530</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7">
-        <v>50621</v>
+        <v>57751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>46455</v>
+        <v>57529</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>456</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="N22" s="7">
-        <v>97077</v>
+        <v>115279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,49 +6326,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7">
-        <v>22482</v>
+        <v>40827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I23" s="7">
-        <v>21426</v>
+        <v>37126</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="N23" s="7">
-        <v>43908</v>
+        <v>77952</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,70 +6377,70 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>759</v>
+        <v>4515</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>2028</v>
+        <v>4874</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>2787</v>
+        <v>9388</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7256,34 +6449,34 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -7292,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7307,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7322,13 +6515,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,102 +6530,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>74621</v>
+        <v>103884</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H27" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I27" s="7">
-        <v>69909</v>
+        <v>99528</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N27" s="7">
-        <v>144530</v>
+        <v>203411</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="D28" s="7">
-        <v>57529</v>
+        <v>215180</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="H28" s="7">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="I28" s="7">
-        <v>57751</v>
+        <v>225793</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
-        <v>152</v>
+        <v>616</v>
       </c>
       <c r="N28" s="7">
-        <v>115279</v>
+        <v>440974</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,49 +6634,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="D29" s="7">
-        <v>37126</v>
+        <v>108069</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="I29" s="7">
-        <v>40827</v>
+        <v>108576</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="N29" s="7">
-        <v>77952</v>
+        <v>216645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,121 +6685,121 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>4874</v>
+        <v>19809</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>502</v>
+        <v>236</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H30" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I30" s="7">
-        <v>4515</v>
+        <v>14074</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>91</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="M30" s="7">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="N30" s="7">
-        <v>9388</v>
+        <v>33884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
+        <v>447</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>792</v>
+        <v>759</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>792</v>
+        <v>2115</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>511</v>
+        <v>387</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>31</v>
+        <v>477</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>512</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7615,28 +6808,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>508</v>
+        <v>326</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>31</v>
+        <v>479</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>277</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,370 +6838,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>135</v>
+        <v>492</v>
       </c>
       <c r="D33" s="7">
-        <v>99528</v>
+        <v>345032</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="I33" s="7">
-        <v>103884</v>
+        <v>349203</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>270</v>
+        <v>972</v>
       </c>
       <c r="N33" s="7">
-        <v>203411</v>
+        <v>694235</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>309</v>
-      </c>
-      <c r="D34" s="7">
-        <v>225793</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H34" s="7">
-        <v>307</v>
-      </c>
-      <c r="I34" s="7">
-        <v>215180</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="M34" s="7">
-        <v>616</v>
-      </c>
-      <c r="N34" s="7">
-        <v>440974</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>150</v>
-      </c>
-      <c r="D35" s="7">
-        <v>108576</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="H35" s="7">
-        <v>153</v>
-      </c>
-      <c r="I35" s="7">
-        <v>108069</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M35" s="7">
-        <v>303</v>
-      </c>
-      <c r="N35" s="7">
-        <v>216645</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>20</v>
-      </c>
-      <c r="D36" s="7">
-        <v>14074</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="H36" s="7">
-        <v>29</v>
-      </c>
-      <c r="I36" s="7">
-        <v>19809</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="M36" s="7">
-        <v>49</v>
-      </c>
-      <c r="N36" s="7">
-        <v>33884</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>759</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1356</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M37" s="7">
-        <v>3</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2115</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>617</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="N38" s="7">
-        <v>617</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>480</v>
-      </c>
-      <c r="D39" s="7">
-        <v>349203</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="7">
-        <v>492</v>
-      </c>
-      <c r="I39" s="7">
-        <v>345032</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="7">
-        <v>972</v>
-      </c>
-      <c r="N39" s="7">
-        <v>694235</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>203</v>
+      <c r="A34" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
